--- a/ABCShop/Outputs/ABCShop.xlsx
+++ b/ABCShop/Outputs/ABCShop.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Google Drive\Dev\Tests\C#\Testing\SeleniumTest\ABCShop\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F38AD4B-2765-4FEC-AE6F-D575F9BC1496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E8CD4-0714-4286-BCFA-5265DDC08AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3180" windowWidth="19995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2145" windowWidth="19995" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="create_acc" sheetId="2" r:id="rId1"/>
+    <sheet name="login_acc" sheetId="3" r:id="rId2"/>
+    <sheet name="SearchProduct" sheetId="1" r:id="rId3"/>
+    <sheet name="Cart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,22 +28,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>Login</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+  <si>
+    <t>Search Key</t>
+  </si>
+  <si>
+    <t>Saree</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirm_password</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Lakmal</t>
+  </si>
+  <si>
+    <t>Samarakkody</t>
+  </si>
+  <si>
+    <t>lakmalsamarakkody@gmail.com</t>
+  </si>
+  <si>
+    <t>lakmal@123</t>
+  </si>
+  <si>
+    <t>123/A</t>
+  </si>
+  <si>
+    <t>Weyangoda</t>
+  </si>
+  <si>
+    <t>IS Available</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>774924351abcd</t>
+  </si>
+  <si>
+    <t>lakmal@456</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>lakmal@12345</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>lakmalsamarakkody2@gmail.com</t>
+  </si>
+  <si>
+    <t>lakmalsamarakkody3@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +198,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,23 +504,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B76A8CE-0992-4CEF-B6CF-C300D6B4594C}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>774924351</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2">
+        <v>774924351</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{8186FFCD-4558-4B62-9C32-2F78E1AF4EC4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E8A9F6F9-47E8-4FA3-AB04-FC279E4F98E2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6B307B6C-27A1-4C12-9CE1-4C7D0A7B10CA}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{CC2CC192-B364-4C15-8B65-167870D32B39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38324B8-9BA7-49FE-8937-C78102963E6D}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894AEAC-BD1E-45BF-8193-DA9D18F13DD7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
